--- a/intranet/src/main/resources/templates/excelFile/BookingConfirmation.xlsx
+++ b/intranet/src/main/resources/templates/excelFile/BookingConfirmation.xlsx
@@ -5,33 +5,228 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\002\intranet\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\002\intranet\src\main\resources\templates\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E29128-BEA2-4BA4-98F3-2BC199022650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D933B4-EFAF-4941-BFF4-25B6314A4C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC743BB-C5B5-324B-BEB8-1702D9A24536}"/>
   </bookViews>
   <sheets>
-    <sheet name="Booking Confirmation" sheetId="1" r:id="rId1"/>
+    <sheet name="Booking Confirmation" sheetId="41" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Booking Confirmation'!$A$1:$E$61</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Korea Corporate Housing</t>
+  </si>
+  <si>
+    <t>BOOKING CONFIRMATION</t>
+  </si>
+  <si>
+    <t>(with Korea Corporate Housing being “the Service Provider”). We are looking forward to your visit.</t>
+  </si>
+  <si>
+    <t>Guest Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check-in </t>
+  </si>
+  <si>
+    <t>Check-out</t>
+  </si>
+  <si>
+    <t>Apartment Type</t>
+  </si>
+  <si>
+    <t>Apartment Address</t>
+  </si>
+  <si>
+    <t>Total Rent</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t># of Guests</t>
+  </si>
+  <si>
+    <t>Booked by</t>
+  </si>
+  <si>
+    <t>Ben Jung(ben@koreacorporatehousing.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking Request Company </t>
+  </si>
+  <si>
+    <t>Not allowed</t>
+  </si>
+  <si>
+    <t>Extension of Lease</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>This letter constitutes the entire agreement between ‘the Service Provider’ and ‘the Client’ regarding the lease of the Apartment for the Term as defined above. The General terms of this letter shall control in the case of any conflict between all parties above.</t>
+  </si>
+  <si>
+    <t>Yours sincerely,</t>
+  </si>
+  <si>
+    <t>Ben Jung</t>
+  </si>
+  <si>
+    <t>Account Manager</t>
+  </si>
+  <si>
+    <t>Korea Corporate Housing Inc</t>
+  </si>
+  <si>
+    <t>Yeong-dong, 03181Jongno-gu, Seoul, South Korea</t>
+  </si>
+  <si>
+    <t> M: +82  (0) 10 8774 1804 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for booking your stay with </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We look forward to welcoming you to </t>
+  </si>
+  <si>
+    <r>
+      <t>Billing Instructions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Termination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Room rental bill to CAP Worldwide and all other non-inclusive incidental expenses to be billed to guest own account</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy\ &quot;15:00PM&quot;"/>
+    <numFmt numFmtId="177" formatCode="mmmm\ dd\,\ yyyy\ &quot;11:00AM&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;Signing Date:&quot;\ mmmm\ dd\,\ yyyy\ "/>
+    <numFmt numFmtId="179" formatCode="&quot;USD&quot;\ #,##0\ &quot;including tax for given term&quot;"/>
+    <numFmt numFmtId="180" formatCode="&quot;USD&quot;\ #,##0.00\ &quot;including tax for given term&quot;"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6AC3BD"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFAFABAB"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF88C7CA"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -41,15 +236,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,15 +258,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -82,6 +353,311 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3936573</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>374607</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="텍스트이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECEE53D-B95B-BD5E-EB0C-91207EC4C010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6679346" y="44609"/>
+          <a:ext cx="557530" cy="424842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>760095</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>168909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5E1903-D4FD-9B47-30CF-42469D58BE27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="8572500"/>
+          <a:ext cx="760095" cy="359410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1625600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2159635</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3CFD661-255B-CDC3-F585-C7E8EF43B4AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451100" y="8280400"/>
+          <a:ext cx="534035" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1047022</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>32016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1611513</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>77073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="텍스트이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A2D6D3-9A7B-9A4B-8753-E2B1ED9F2C27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3789795" y="1824957"/>
+          <a:ext cx="564491" cy="429259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67023</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>875126</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109710</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD08200-9674-4F46-B60E-E8AC58AAC1CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="483241" y="1625172"/>
+          <a:ext cx="3134658" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1660179</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9283BB-0419-CC4E-8941-D5EA81B7F19A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4402952" y="1606815"/>
+          <a:ext cx="3134658" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,17 +956,533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14226D6-2E0F-8448-A388-264F2FF670D4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="34.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="8.1" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="8.1" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="8.1" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="8.1" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="1"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C45:D47"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D34:D42"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="62" min="1" max="12" man="1"/>
+    <brk id="128" min="1" max="15" man="1"/>
+  </rowBreaks>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="5" max="97" man="1"/>
+    <brk id="17" max="199" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/intranet/src/main/resources/templates/excelFile/BookingConfirmation.xlsx
+++ b/intranet/src/main/resources/templates/excelFile/BookingConfirmation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\002\intranet\src\main\resources\templates\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D933B4-EFAF-4941-BFF4-25B6314A4C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA34CAF-571F-4BAC-9945-E1277675F244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC743BB-C5B5-324B-BEB8-1702D9A24536}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Korea Corporate Housing</t>
   </si>
@@ -91,6 +91,27 @@
   </si>
   <si>
     <t>Notice</t>
+  </si>
+  <si>
+    <t>Contamination of wallpaper by smoking or any of carelessness issues, the corresponding fee may be charged</t>
+  </si>
+  <si>
+    <t>The guest is responsible and liable for any damage or injury caused by the pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rent is inclusive of the following: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Fully furnished and equipped kitchen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Internet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Building Management Fee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Gas, Water, Electricity </t>
   </si>
   <si>
     <t>This letter constitutes the entire agreement between ‘the Service Provider’ and ‘the Client’ regarding the lease of the Apartment for the Term as defined above. The General terms of this letter shall control in the case of any conflict between all parties above.</t>
@@ -271,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -317,6 +338,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -334,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -962,8 +989,8 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -1012,7 +1039,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="8.1" customHeight="1">
@@ -1021,7 +1048,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="8.1" customHeight="1">
@@ -1041,10 +1068,10 @@
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
@@ -1086,9 +1113,12 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
@@ -1113,7 +1143,10 @@
       <c r="C18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
@@ -1122,7 +1155,10 @@
       <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="12" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
@@ -1131,7 +1167,10 @@
       <c r="C20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
@@ -1140,40 +1179,55 @@
       <c r="C21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="14" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="16" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="15" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="23" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="14" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
@@ -1193,7 +1247,10 @@
       <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
@@ -1213,34 +1270,37 @@
       <c r="C29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="17" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>29</v>
+      <c r="C30" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="24"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="C32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="1"/>
@@ -1251,7 +1311,10 @@
       <c r="C33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="17" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1">
@@ -1260,69 +1323,83 @@
       <c r="C34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="24"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="24"/>
+      <c r="D36" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="24"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="25"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="10"/>
       <c r="E43" s="1"/>
     </row>
@@ -1336,24 +1413,24 @@
     <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="24"/>
+      <c r="C45" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="25"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
@@ -1367,9 +1444,12 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="D49" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5">
@@ -1383,7 +1463,7 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="1"/>
@@ -1399,7 +1479,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="1"/>
@@ -1408,7 +1488,7 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="1"/>
@@ -1417,7 +1497,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="1"/>
@@ -1432,8 +1512,11 @@
     <row r="57" spans="1:5">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5">
@@ -1465,12 +1548,13 @@
       <c r="E61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C45:D47"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D34:D42"/>
+    <mergeCell ref="D34:D35"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/intranet/src/main/resources/templates/excelFile/BookingConfirmation.xlsx
+++ b/intranet/src/main/resources/templates/excelFile/BookingConfirmation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\002\intranet\src\main\resources\templates\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA34CAF-571F-4BAC-9945-E1277675F244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5360330-0EFF-4D03-9957-429729BB899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC743BB-C5B5-324B-BEB8-1702D9A24536}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Korea Corporate Housing</t>
   </si>
@@ -91,27 +91,6 @@
   </si>
   <si>
     <t>Notice</t>
-  </si>
-  <si>
-    <t>Contamination of wallpaper by smoking or any of carelessness issues, the corresponding fee may be charged</t>
-  </si>
-  <si>
-    <t>The guest is responsible and liable for any damage or injury caused by the pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rent is inclusive of the following: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Fully furnished and equipped kitchen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Internet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Building Management Fee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Gas, Water, Electricity </t>
   </si>
   <si>
     <t>This letter constitutes the entire agreement between ‘the Service Provider’ and ‘the Client’ regarding the lease of the Apartment for the Term as defined above. The General terms of this letter shall control in the case of any conflict between all parties above.</t>
@@ -347,9 +326,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -364,6 +340,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,8 +968,8 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -1039,7 +1018,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="8.1" customHeight="1">
@@ -1048,7 +1027,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="8.1" customHeight="1">
@@ -1068,10 +1047,10 @@
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
@@ -1113,7 +1092,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4" t="e">
         <f>#REF!</f>
@@ -1214,7 +1193,7 @@
       <c r="C24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="23" t="e">
+      <c r="D24" s="22" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -1280,10 +1259,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -1291,14 +1270,14 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="25"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>15</v>
@@ -1323,83 +1302,69 @@
       <c r="C34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>18</v>
-      </c>
+      <c r="D34" s="24"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="25"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="26" t="s">
-        <v>19</v>
-      </c>
+      <c r="D36" s="25"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="26"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="27"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="10"/>
       <c r="E43" s="1"/>
     </row>
@@ -1413,24 +1378,24 @@
     <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="25"/>
+      <c r="C45" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="24"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
@@ -1444,7 +1409,7 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D49" s="4" t="e">
         <f>#REF!</f>
@@ -1463,7 +1428,7 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="1"/>
@@ -1479,7 +1444,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="1"/>
@@ -1488,7 +1453,7 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="1"/>
@@ -1497,7 +1462,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="1"/>
@@ -1513,7 +1478,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="22" t="e">
+      <c r="D57" s="27" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>

--- a/intranet/src/main/resources/templates/excelFile/BookingConfirmation.xlsx
+++ b/intranet/src/main/resources/templates/excelFile/BookingConfirmation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\002\intranet\src\main\resources\templates\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5360330-0EFF-4D03-9957-429729BB899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6977DE8A-8C5B-48F1-9E43-738E995AD9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC743BB-C5B5-324B-BEB8-1702D9A24536}"/>
   </bookViews>
@@ -329,6 +329,9 @@
     <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,9 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,8 +968,8 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -1047,10 +1047,10 @@
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
@@ -1094,10 +1094,7 @@
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
@@ -1122,10 +1119,7 @@
       <c r="C18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
@@ -1134,10 +1128,7 @@
       <c r="C19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
@@ -1146,10 +1137,7 @@
       <c r="C20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
@@ -1158,10 +1146,7 @@
       <c r="C21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D21" s="14"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
@@ -1170,10 +1155,7 @@
       <c r="C22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="16" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D22" s="16"/>
       <c r="E22" s="1"/>
       <c r="J22" s="8"/>
     </row>
@@ -1181,10 +1163,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="15" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D23" s="15"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
@@ -1193,20 +1172,14 @@
       <c r="C24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="22" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D24" s="22"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D25" s="14"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
@@ -1226,10 +1199,7 @@
       <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
@@ -1249,10 +1219,7 @@
       <c r="C29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="17" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D29" s="17"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
@@ -1261,7 +1228,7 @@
       <c r="C30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="1"/>
@@ -1270,7 +1237,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
@@ -1290,10 +1257,7 @@
       <c r="C33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="17" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D33" s="17"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1">
@@ -1302,69 +1266,69 @@
       <c r="C34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="24"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="25"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="25"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="26"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="18"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="26"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="15"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="26"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="15"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="26"/>
+      <c r="C41" s="27"/>
       <c r="D41" s="15"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="26"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="15"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="26"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="10"/>
       <c r="E43" s="1"/>
     </row>
@@ -1378,24 +1342,24 @@
     <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="24"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
@@ -1411,10 +1375,7 @@
       <c r="C49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D49" s="4"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5">
@@ -1478,10 +1439,7 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D57" s="23"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5">

--- a/intranet/src/main/resources/templates/excelFile/BookingConfirmation.xlsx
+++ b/intranet/src/main/resources/templates/excelFile/BookingConfirmation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coding\002\intranet\src\main\resources\templates\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6977DE8A-8C5B-48F1-9E43-738E995AD9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A447BE-C752-42AA-B84C-CBB961982259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAC743BB-C5B5-324B-BEB8-1702D9A24536}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Korea Corporate Housing</t>
   </si>
@@ -146,10 +146,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>Room rental bill to CAP Worldwide and all other non-inclusive incidental expenses to be billed to guest own account</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -271,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -331,6 +327,9 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -968,8 +967,8 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScale="119" zoomScaleNormal="176" zoomScaleSheetLayoutView="119" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
@@ -1047,10 +1046,10 @@
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
@@ -1228,16 +1227,14 @@
       <c r="C30" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>29</v>
-      </c>
+      <c r="D30" s="24"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="25"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
@@ -1266,69 +1263,69 @@
       <c r="C34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="25"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="26"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="26"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="27"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="18"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="27"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="15"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="27"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="15"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="27"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="15"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="27"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="15"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="27"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="10"/>
       <c r="E43" s="1"/>
     </row>
@@ -1342,24 +1339,24 @@
     <row r="45" spans="1:5" ht="15" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
@@ -1471,12 +1468,11 @@
       <c r="E61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C45:D47"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="C38:C43"/>
-    <mergeCell ref="D30:D31"/>
     <mergeCell ref="D34:D35"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
